--- a/biology/Botanique/Boston_Common/Boston_Common.xlsx
+++ b/biology/Botanique/Boston_Common/Boston_Common.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Boston Common est le plus ancien jardin public de la ville de Boston et même des États-Unis. Il est bordé par les rues Tremont, Beacon, et Charles.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inauguré en 1634, c'est le plus ancien parc américain. Les vaches pouvaient continuer à paître sur une partie des 20 ha et ce, jusqu'en 1830. En tant que parc public, le Boston Common a servi de lieu d’exécution et de châtiment public : y sont morts, entre autres, les quatre martyrs quakers de Boston (dont Mary Dyer en 1660[1] et William Leddra en 1661[2]), le chef indien Tantamous en 1676[3] et la pirate Rachel Wall en 1789. Les soldats britanniques y stationnèrent  jusqu'à l'indépendance du Pays.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inauguré en 1634, c'est le plus ancien parc américain. Les vaches pouvaient continuer à paître sur une partie des 20 ha et ce, jusqu'en 1830. En tant que parc public, le Boston Common a servi de lieu d’exécution et de châtiment public : y sont morts, entre autres, les quatre martyrs quakers de Boston (dont Mary Dyer en 1660 et William Leddra en 1661), le chef indien Tantamous en 1676 et la pirate Rachel Wall en 1789. Les soldats britanniques y stationnèrent  jusqu'à l'indépendance du Pays.
 L'étang de Frog Pond sert de patinoire en hiver ; c'est ici que se trouve la fontaine Brewer et que l'on joue de la musique au Parkman Banstand (kiosque).
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Monuments et bâtiments notables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Mémorial à Robert Gould Shaw et au 54e Régiment d'infanterie des volontaires du Massachusetts : monument érigé par Augustus Saint-Gaudens, en hommage à Robert Gould Shaw qui dirigea une unité composée de soldats et marins noirs pendant la guerre de Sécession ;
 Mémorial du massacre de Boston ;
